--- a/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D352"/>
+  <dimension ref="A1:D355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4878,6 +4878,48 @@
         <v>61038537220.89941</v>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B353" t="n">
+        <v>28110277000000</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.002199832812706234</v>
+      </c>
+      <c r="D353" t="n">
+        <v>61837909718.86137</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B354" t="n">
+        <v>27970918000000</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.002214545132429799</v>
+      </c>
+      <c r="D354" t="n">
+        <v>61942860306.49305</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B355" t="n">
+        <v>28327691000000</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.002241599605478469</v>
+      </c>
+      <c r="D355" t="n">
+        <v>63499340969.71599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D355"/>
+  <dimension ref="A1:D356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4920,6 +4920,20 @@
         <v>63499340969.71599</v>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B356" t="n">
+        <v>29274455000000</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.002220692411894029</v>
+      </c>
+      <c r="D356" t="n">
+        <v>65009560080.83321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D356"/>
+  <dimension ref="A1:D357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4934,6 +4934,20 @@
         <v>65009560080.83321</v>
       </c>
     </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B357" t="n">
+        <v>28852963000000</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.002251947934963744</v>
+      </c>
+      <c r="D357" t="n">
+        <v>64975370445.43531</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D357"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4948,6 +4948,34 @@
         <v>64975370445.43531</v>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B358" t="n">
+        <v>29291631000000</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.00218426455812328</v>
+      </c>
+      <c r="D358" t="n">
+        <v>63980671442.92516</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B359" t="n">
+        <v>29720800000000</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.002094811152774578</v>
+      </c>
+      <c r="D359" t="n">
+        <v>62259463309.38266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:D360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4976,6 +4976,20 @@
         <v>62259463309.38266</v>
       </c>
     </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B360" t="n">
+        <v>30356335000000</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.002135520105921798</v>
+      </c>
+      <c r="D360" t="n">
+        <v>64826563734.59757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Kazakhstan_M2 (KZT)</t>
+  </si>
+  <si>
+    <t>Kazakhstan_FX (USD)</t>
+  </si>
+  <si>
+    <t>Kazakhstan_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,4571 +385,4313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D360"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Kazakhstan_M2 (KZT)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Kazakhstan_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Kazakhstan_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>34304</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>8197000000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>34335</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8232000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>34366</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>12540000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>34394</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>58595000000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>34425</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>38179000000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>34455</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>43148000000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>34486</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>42065000000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>34516</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>28615000000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>34547</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>32158000000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>34578</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>37369000000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>34608</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>39197000000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>34639</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>42687000000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>34669</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>52517000000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>34700</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>48874000000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>34731</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>51370000000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>34759</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>56853000000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>34790</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>69379000000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>34820</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>68378000000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>34851</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>77250000000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>34881</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>85523000000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>34912</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>86812000000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>34943</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>86415000000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>34973</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>98904000000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>35004</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>103270000000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>35034</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>109025000000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>35065</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>103154000000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>35096</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>106617000000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>35125</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>103917000000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>35156</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>105266000000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>35186</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>126106000000</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>35217</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>107806000000</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>35247</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>103194000000</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>35278</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>106345000000</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>35309</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>105245000000</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>35339</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>103869000000</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>35370</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>106583000000</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>35400</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>122515000000</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>35431</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>112375000000</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>35462</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>117163000000</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>35490</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>122885000000</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>35521</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>121906000000</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>35551</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>125686000000</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>35582</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>131093000000</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>35612</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>138713000000</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>35643</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>145990000000</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>35674</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>154233000000</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>35704</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>147334000000</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>35735</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>153873000000</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>35765</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>164151000000</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>35796</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>146583000000</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>35827</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>144702000000</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>35855</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>145341000000</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>35886</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>149079000000</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>35916</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>153615000000</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>35947</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>148463000000</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>35977</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>150003000000</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>36008</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>146003000000</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>36039</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>134638000000</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>36069</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>131824000000</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>36100</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>128979000000</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>36130</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>133447000000</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>36161</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>115584000000</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>36192</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>116980000000</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>36220</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>110928000000</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>36251</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>124927000000</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>36281</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>131352000000</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>36312</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>134247000000</v>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>36342</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>154235000000</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>36373</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>164901000000</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>36404</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>163247000000</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>36434</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>172623000000</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>36465</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>183796000000</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>36495</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>237260000000</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>36526</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>210793000000</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>36557</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>210716000000</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>36586</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>207545000000</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>36617</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>218498000000</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>36647</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>228456000000</v>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>36678</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>241898000000</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>36708</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>260833000000</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>36739</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>263580000000</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>36770</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>278501000000</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>36800</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>294928000000</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>36831</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>283324000000</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>36861</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>290643000000</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>36892</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>271849000000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.006927606511950121</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>1883262902.667129</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>36923</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>290975000000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.006918978758735211</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>2013249844.322978</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>36951</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>311455000000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.006909894969596462</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>2152121337.755666</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>36982</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>295745000000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.006898930665746809</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>2040324249.74129</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>37012</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>306972000000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.006864831468387451</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>2107311045.513833</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>37043</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>347105000000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.006846501437765302</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>2376454881.555525</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>37073</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>353279000000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.006833401667350007</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>2414097307.639743</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>37104</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>338510000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.006827802813054759</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>2311279530.247167</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>37135</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>355646000000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.006804572672836145</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>2420019052.803484</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>37165</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>346173000000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.006783340116673451</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>2348209198.209198</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>37196</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>326428000000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.006744907594765952</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>2201726696.34426</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>37226</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>337980000000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.006664445184938353</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>2252449183.605464</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>37257</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>315711000000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.006637021304838389</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>2095380633.171833</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>37288</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>309127000000</v>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>37316</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>328982000000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.006592827004219409</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>2168921413.50211</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>37347</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>344634000000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.006571165724799579</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>2264647128.400578</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>37377</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>350423000000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.006563402467839327</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>2299967182.987661</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>37408</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>364286000000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.006548359635911204</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>2385475738.327549</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>37438</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>389855000000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.006518479890489538</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>2541261977.706799</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>37469</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>395426000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.006504911207962012</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>2572211019.319586</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>37500</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>419268000000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.006501950585175552</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>2726059817.945384</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>37530</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>446155000000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.006508721687060662</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>2903898724.29055</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>37561</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>442830000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.006516780710329098</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>2885826001.955035</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>37591</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>498071000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.006450780544445878</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>3212946716.552703</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>37622</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>441962000000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.006480041472265423</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>2863932089.165371</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>37653</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>484256000000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.006621201085876978</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>3206356353.042442</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>37681</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>524631000000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.006604583581005218</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>3464969288.686348</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>37712</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>533893000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.006619447938041968</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>3534076917.98504</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>37742</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>568857000000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.006677350427350428</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>3798457532.051282</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>37773</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>620186000000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.006813381481229133</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>4225563807.317571</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>37803</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>640074000000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.006851192107426692</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>4385269936.969032</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>37834</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>637244000000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.00681802686302584</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>4344746710.302039</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>37865</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>683429000000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.006752650415288</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>4614957120.669863</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>37895</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>705866000000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.006791171477079796</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>4793657045.840407</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>37926</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>701251000000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.006855419208884623</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>4807369575.64955</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>37956</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>693381000000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.006942515967786726</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>4813808664.259928</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>37987</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>700991000000</v>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>38018</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>733245000000</v>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>38047</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>770676000000</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>38078</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>784654000000</v>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>38108</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>852629000000</v>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>38139</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>891766000000</v>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>38169</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>896585000000</v>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>38200</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>932505000000</v>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>38231</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>974227000000</v>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>38261</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>1003156000000</v>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>38292</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>1173890000000</v>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>38322</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>1175491000000</v>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>38353</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>1108353000000</v>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>38384</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>1167898000000</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>38412</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>1263662000000</v>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>38443</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>1271707000000</v>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>38473</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>1321824000000</v>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>38504</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>1363526000000</v>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>38534</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>1359235000000</v>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>38565</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>1391764000000</v>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>38596</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>1450385000000</v>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>38626</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>1474028000000</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>38657</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>1459131000000</v>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>38687</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>1515970000000</v>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>38718</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>1478931000000</v>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>38749</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>1617525000000</v>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>38777</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>1749189000000</v>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>38808</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>1779603000000</v>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>38838</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>1943181000000</v>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>38869</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>2097516000000</v>
       </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>38899</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>2214767000000</v>
       </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>38930</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>2264265000000</v>
       </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>38961</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>2300468000000</v>
       </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>38991</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>2416745000000</v>
       </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>39022</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>2530079000000</v>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>39052</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>2814551000000</v>
       </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>39083</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>2867170000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.007961149590000795</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>22825969269.96258</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>39114</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>2989009000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.008052826542116283</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>24069971009.82445</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>39142</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>3130333000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.008108984755108661</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>25383822575.41356</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>39173</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>3260921000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.008356313194618534</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>27249277178.90866</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>39203</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>3454167000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.008221655841486476</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>28398972293.01981</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>39234</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>3723349000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.008225037012666556</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>30624683336.07501</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>39264</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>3759581000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.008125457056959454</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>30548313967.66068</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>39295</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>3651989000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.007944073721004131</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>29011669844.29615</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>39326</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>3555596000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.008308408109006314</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>29541342638.75042</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>39356</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>3422035000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.008299443937256205</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>28400987633.82854</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>39387</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>3470733000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.008309788931361143</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>28841058667.10986</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>39417</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>3553643000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.008346548702111677</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>29660654369.41824</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>39448</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>3443604000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.008355614973262031</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>28773429144.38502</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>39479</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>3485034000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.008319467554076539</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>28993627287.85358</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>39508</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>3606858000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.008321544478655239</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>30014629275.19348</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>39539</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>3617487000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.008339588024351597</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>30168351263.44759</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>39569</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>3781139000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.00832639467110741</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>31483255620.3164</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>39600</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>3913425000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.008316699933466402</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>32546781437.12575</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>39630</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>4045590000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.008354916868577159</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>33800568134.34706</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>39661</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>4120310000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.008390669575432119</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>34572159758.34871</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>39692</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>4314343000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.008375209380234505</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>36133525963.14908</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>39722</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>4105566000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.008371002846140969</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>34367704671.01959</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>39753</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>4378167000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.008342370901810295</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>36524292984.06607</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>39783</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>4620329000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.008311170212765957</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>38400340757.97872</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>39814</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>4207184000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.008241984669908515</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>34675546031.48438</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>39845</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>4476698000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.006684491978609625</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>29924451871.65775</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>39873</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>4416658000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.006665777896280495</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>29440461271.83042</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>39904</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>4391502000000</v>
       </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>39934</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>4419187000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.006646726487205052</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>29373127284.81223</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>39965</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>4736890000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.006648936170212766</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>31495279255.31915</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>39995</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>4993239000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.006635700066357001</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>33133636363.63636</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>40026</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>4857713000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.006633499170812604</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>32223635157.5456</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>40057</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>4909233000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.006626905235255135</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>32533021868.78727</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>40087</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>4796942000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.006635700066357001</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>31831068347.71069</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>40118</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>4829444000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.006727211570803902</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>32488691557.34948</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>40148</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>5335204000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.006736274840013473</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>35939400471.53925</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>40179</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>5394164000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.006756756756756757</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>36447054054.05405</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>40210</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>5544467000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.006791171477079796</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>37653426146.01019</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>40238</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>5709675000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.006802721088435374</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>38841326530.61224</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>40269</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>5914060000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.006832934745473181</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>40410386060.81312</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>40299</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>6015559000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.006818956699624957</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>41019836345.03921</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>40330</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>6124467000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.00678886625933469</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>41578187372.70876</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>40360</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>6300518000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.006772773450728073</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>42671981036.23434</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>40391</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>6367061000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.006791171477079796</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>43239803056.02716</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>40422</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>6581709000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.006772773450728073</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>44576423975.61801</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>40452</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>6693128000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.00678195998643608</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>45392526280.09495</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>40483</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>6615320000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.006775067750677507</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>44819241192.41193</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>40513</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>6570099000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.00678886625933469</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>44603523421.58858</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>40544</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>6649830000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.006807351940095302</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>45267733151.80395</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>40575</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>6802837000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.006853070175438597</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>46620319353.07018</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>40603</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>7167153000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.006870491240123669</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>49241861903.12607</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>40634</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>7252484000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.006865774116031583</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>49793916924.13319</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>40664</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>7209417000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.006881365262868153</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>49610631709.33113</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>40695</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>7568969000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.006856359273225917</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>51895570791.90949</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>40725</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>8014382000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.006832934745473181</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>54761749231.29485</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>40756</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>7769597000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.006818956699624957</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>52980545516.53596</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>40787</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>8006900000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.006752194463200541</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>54064145847.40041</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>40817</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>7909954000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.006759040216289288</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>53463697194.99831</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>40848</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>7754881000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.006770480704129994</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>52504272173.32431</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>40878</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>7967502000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.006736274840013473</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>53671283260.35703</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>40909</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>7783105000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.006727211570803902</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>52358594012.7817</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>40940</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>8050932000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.006772773450728073</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>54527138503.21706</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>40969</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>8418579000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.00676132521974307</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>56920750507.09939</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>41000</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>8618624000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.006770480704129994</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>58352227488.15166</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>41030</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>8454048000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.00676132521974307</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>57160567951.31846</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>41061</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>8490391000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.006691201070592172</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>56810913348.94614</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>41091</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>8602644000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.0066711140760507</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>57389219479.6531</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>41122</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>8409751000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.006686726847208291</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>56233707790.03677</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>41153</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>8481616000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.006673340006673341</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>56600707374.04071</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>41183</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>8761681000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.006633499170812604</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>58120603648.42455</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>41214</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>8513774000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.006642311524410495</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>56551139156.42644</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>41244</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>8546937000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.00665335994677312</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>56865848303.39321</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>41275</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>8565127000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.006629101756711966</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>56779098442.16109</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>41306</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>8624926000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.006649378283130528</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>57350395638.00785</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>41334</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>9055289000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.006629101756711966</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>60028432217.43454</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>41365</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>9053835000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.006613756613756614</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>59879861111.11111</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>41395</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>9217119000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.006609385327164573</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>60919491077.3298</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>41426</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>9142464000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.006589785831960461</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>60246879736.40857</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>41456</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>9015168000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.006514657980456026</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>58730736156.35179</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>41487</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>8597635000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.006527415143603134</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>56120332898.17233</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>41518</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>8766907000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.006501950585175552</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>57001996098.82964</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>41548</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>8844868000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.006487187804086928</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>57378319818.35874</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>41579</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>8553461000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.006487187804086928</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>55487907881.93318</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>41609</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>8677324000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.006480881399870382</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>56236707712.24886</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>41640</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>8852632000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.00643293663557414</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>56948420714.05598</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>41671</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>8884940000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.005422993492407809</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>48182971800.43384</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>41699</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>8929817000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.005498130635583902</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>49097300417.85793</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>41730</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>8959046000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.005494505494505495</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>49225527472.52747</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>41760</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>9207896000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.005455537370430987</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>50234020731.042</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>41791</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>9735021000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.005455537370430987</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>53109770867.43044</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>41821</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>9752992000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.005461496450027308</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>53265931185.14473</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>41852</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>9567278000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.005492996429552321</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>52553023894.53447</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>41883</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>9549403000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.005498130635583902</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>52503865185.83682</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>41913</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>9202089000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.005524861878453038</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>50840270718.23204</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>41944</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>8582774000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.005509641873278237</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>47288011019.28374</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>41974</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>7966124000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.005485463521667581</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>43697882611.08064</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>42005</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>7630557000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.005422993492407809</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>41380460954.44685</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>42036</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>7652864000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.005401026194977046</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>41333318930.59681</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>42064</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>7792745000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.005383580080753701</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>41952866756.39301</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>42095</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>7594241000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.005379236148466917</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>40851215707.36955</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>42125</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>7829196000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.005382131324004305</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>42137761033.36921</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>42156</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>8545230000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.005370569280343717</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>45892749731.47153</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>42186</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>8181067000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.005319148936170213</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>43516313829.78723</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>42217</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>8235031000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.004177982034677251</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>34405811573.01024</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>42248</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>8430690000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.003677822728944465</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>31006583302.68481</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>42278</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>8496433000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.003571428571428571</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>30344403571.42857</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>42309</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>8913375000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.003252032520325203</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>28986585365.85366</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>42339</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>8600161000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.002949852507374631</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>25369206489.67551</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>42370</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>8567534000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.002743484224965706</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>23504894375.85734</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>42401</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>8783375000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.002865329512893983</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>25167263610.31519</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>42430</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>9738469000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.002898130705694827</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>28223356035.35719</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>42461</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>9781593000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.003054834275240568</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>29881145562.85321</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>42491</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>10150888000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.002973093503790694</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>30179539170.50691</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>42522</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>10669542000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.002949417490045716</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>31468933785.57735</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>42552</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>11240903000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.002838087129274869</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>31902662125.72726</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>42583</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>10923646000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.002939879464941938</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>32114202557.69514</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>42614</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>11173979000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.002978406552494416</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>33280652271.035</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>42644</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>11397975000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.002980625931445604</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>33973099850.9687</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>42675</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>11825762000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.002945508100147275</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>34832877761.41384</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>42705</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>12589931000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.00299805126667666</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>37745258581.92175</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>42736</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>12098181000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.003093867953715735</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>37430174494.15259</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>42767</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>11951876000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.003197851044098366</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>38220319145.5342</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>42795</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>12726626000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.00318908058806646</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>40586235928.18191</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>42826</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>13010060000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.003179549139931958</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>41366125083.46317</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>42856</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>13181924000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.003208933671341013</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>42299919776.65822</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>42887</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>13600013000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.003106554830692762</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>42249186082.63436</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>42917</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>13300308000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.003036467980445146</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>40385959372.05842</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>42948</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>12985703000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.002959543046553612</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>38431747018.26038</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>42979</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>14083769000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.002939620201070022</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>41400931859.60374</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>43009</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>13632260000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.002986679409832149</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>40715190251.47841</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>43040</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>13557746000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.003019779556092405</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>40941404197.49358</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>43070</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>13513426000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.003005710850616171</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>40617451157.19868</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>43101</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>13338598000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.003095879384539178</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>41294690566.85551</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>43132</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>13291605000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.003121975586150916</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>41496066310.76145</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>43160</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>13351482000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.003135189365437673</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>41859424379.23251</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>43191</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>13537134000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.003054740957966764</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>41352437683.28445</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>43221</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>13591199000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.003036652394400413</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>41271746986.1225</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>43252</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>14433228000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.002930746461123649</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>42300131883.59075</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>43282</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>14696593000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.002879686690088118</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>42321583251.74221</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>43313</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>13832165000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.002751258700855641</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>38055864307.92087</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>43344</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>13677123000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.00275504862660826</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>37681138937.10224</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>43374</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>13909606000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.00270292185852907</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>37596578100.9271</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>43405</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>14041534000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.002679743816491143</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>37627713910.55015</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>43435</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>14467059000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.002604370133083313</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>37677576373.15414</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>43466</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>15842962000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.002631786720004211</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>41695296997.13136</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>43497</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>14814967000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.002672939163904629</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>39599505506.25468</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>43525</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>14641941000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.002635949073463901</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>38595410812.6631</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>43556</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>14587125000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.002627430373095113</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>38326655281.13505</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>43586</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>15132426000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.002614652512681065</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>39566035663.86028</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>43617</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>14549374000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.002628397203385376</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>38241533932.60789</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>43647</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>14960666000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.002608718336681188</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>39028163723.16281</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>43678</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>14629505000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.002583578773316799</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>37796478582.13197</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>43709</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>15200475000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.002577917558196489</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>39185571395.42677</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>43739</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>15612256000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.002571950309920012</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>40153946657.75057</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>43770</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>15275961000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.002587924743148469</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>39533037447.27103</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>43800</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>16054722000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.002612603197826314</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>41944618037.41248</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>43831</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>15538391000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.002636018557570645</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>40959487030.78869</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>43862</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>15507593000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.00261876080238831</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>40610676687.79134</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>43891</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>16407064000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.002232093033637642</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>36622093256.84695</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>43922</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>16406269000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.002350010575047588</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>38554905647.07541</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>43952</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>16797971000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.002428540204483085</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>40794547927.24094</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>43983</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>17214619000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.002464450304359613</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>42424573033.98477</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>44013</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>17930660000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.002372929618907503</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>42548194200.56001</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>44044</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>18022538000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.002380555621682101</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>42903654152.87928</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>44075</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>18379007000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.002311176851252658</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>42477135527.41055</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>44105</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>18792360000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.002310642820832756</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>43422431720.50465</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>44136</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>18748810000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.002350065801842452</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>44060937206.24178</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>44166</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>19134928000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.002373774538894296</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>45422004889.97555</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>44197</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>19607153000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.002359770630294735</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>46268383793.09531</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>44228</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>19513171000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.002393661584125237</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>46707927807.16663</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>44256</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>20328120000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.002349955350848334</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>47770174366.68703</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>44287</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>20814132000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.002325905940363772</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>48411713262.31567</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>44317</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>21277202000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.002336776183577137</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>49720058886.75983</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>44348</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>22005814000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.002341481689613187</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>51526210546.03353</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>44378</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>22155383000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.002351945058563432</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>52108243567.43027</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>44409</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>21887518000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.002347252540900875</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>51375532239.51365</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>44440</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>22572364000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.002348354977338375</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>53007923349.69354</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>44470</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>22746598000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.002340385695562629</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>53235812581.9135</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>44501</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>22276425000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.002274122757146431</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>50659325040.36568</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>44531</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>23750267000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.002299749327323322</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>54619660556.99929</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>44562</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>23424245000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.002302396795063662</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>53931906614.786</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>44593</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>23868588000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.00204880247495339</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>48902022168.04278</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>44621</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>23388580000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.002128610655824943</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>49785180612.61414</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>44652</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>23174386000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.002256928771327977</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>52302938521.26027</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>44682</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>22903738000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.002352498353251153</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>53881005928.29585</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>44713</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>24147388000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.002127659574468085</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>51377421276.59575</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>44743</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>25032674000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.002096919625070771</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>52491505378.59885</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>44774</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>24940660000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.002115551418477226</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>52763248640.75822</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>44805</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>25826059000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.002099120468523688</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>54212009068.20042</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>44835</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>26810878000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>0.002141327623126338</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>57410873661.67024</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>44866</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>26259950000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.002133151304422023</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>56016446596.55709</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>44896</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>28025355000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>0.002162068667300873</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>60592741935.48387</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>44927</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>27666796000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>0.002172118684564925</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>60095564533.64612</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>44958</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>27173136000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>0.002246282402623658</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>61038537220.89941</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>44986</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>28110277000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>0.002199832812706234</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>61837909718.86137</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>45017</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>27970918000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>0.002214545132429799</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>61942860306.49305</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>45047</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>28327691000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>0.002241599605478469</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>63499340969.71599</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>45078</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>29274455000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>0.002220692411894029</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>65009560080.83321</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>45108</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>28852963000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.002251947934963744</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>64975370445.43531</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>45139</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>29291631000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.00218426455812328</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>63980671442.92516</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>45170</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>29720800000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.002094811152774578</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>62259463309.38266</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>45200</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>30356335000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.002135520105921798</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>64826563734.59757</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Kazakhstan_M2 (KZT)</t>
-  </si>
-  <si>
-    <t>Kazakhstan_FX (USD)</t>
-  </si>
-  <si>
-    <t>Kazakhstan_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,4313 +426,4585 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D360"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Kazakhstan_M2 (KZT)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Kazakhstan_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Kazakhstan_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>34304</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>8197000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>34335</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>8232000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>34366</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>12540000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>34394</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>58595000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>34425</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>38179000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>34455</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>43148000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>34486</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>42065000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>34516</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>28615000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>34547</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>32158000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>34578</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>37369000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>34608</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>39197000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>34639</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>42687000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>34669</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>52517000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>34700</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>48874000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>34731</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>51370000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>34759</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>56853000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>34790</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>69379000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>34820</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>68378000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>34851</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>77250000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>34881</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>85523000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>34912</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>86812000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>34943</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>86415000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>34973</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>98904000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>35004</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>103270000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>35034</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>109025000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>35065</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>103154000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>35096</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>106617000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>35125</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>103917000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>105266000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>35186</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>126106000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>35217</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>107806000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>103194000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>106345000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>35309</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>105245000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>103869000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>35370</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>106583000000</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>122515000000</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>112375000000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>35462</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>117163000000</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>35490</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>122885000000</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>121906000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>35551</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>125686000000</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>35582</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>131093000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>138713000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>35643</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>145990000000</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>35674</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>154233000000</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>147334000000</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>35735</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>153873000000</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>35765</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>164151000000</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>146583000000</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>35827</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>144702000000</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>35855</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>145341000000</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>35886</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>149079000000</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>35916</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>153615000000</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>35947</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>148463000000</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>35977</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>150003000000</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>36008</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>146003000000</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>36039</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>134638000000</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>131824000000</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>36100</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>128979000000</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>36130</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>133447000000</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>115584000000</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>36192</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>116980000000</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>36220</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>110928000000</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>124927000000</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>36281</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>131352000000</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>36312</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>134247000000</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>154235000000</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>36373</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>164901000000</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>163247000000</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>172623000000</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>36465</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>183796000000</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>36495</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>237260000000</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>210793000000</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>36557</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>210716000000</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>207545000000</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>218498000000</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>36647</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>228456000000</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>36678</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>241898000000</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2">
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>260833000000</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2">
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>36739</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>263580000000</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2">
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>36770</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>278501000000</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>294928000000</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2">
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>36831</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>283324000000</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2">
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>36861</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>290643000000</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2">
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>271849000000</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>0.006927606511950121</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>1883262902.667129</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>36923</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>290975000000</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>0.006918978758735211</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>2013249844.322978</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>311455000000</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>0.006909894969596462</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>2152121337.755666</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>295745000000</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>0.006898930665746809</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>2040324249.74129</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>306972000000</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>0.006864831468387451</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>2107311045.513833</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>37043</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>347105000000</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>0.006846501437765302</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>2376454881.555525</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>353279000000</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>0.006833401667350007</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>2414097307.639743</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>37104</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>338510000000</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>0.006827802813054759</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>2311279530.247167</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>37135</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>355646000000</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>0.006804572672836145</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>2420019052.803484</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>346173000000</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>0.006783340116673451</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>2348209198.209198</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>37196</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>326428000000</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>0.006744907594765952</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>2201726696.34426</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>37226</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>337980000000</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>0.006664445184938353</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>2252449183.605464</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>315711000000</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>0.006637021304838389</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>2095380633.171833</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>309127000000</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2">
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>328982000000</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>0.006592827004219409</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>2168921413.50211</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>344634000000</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>0.006571165724799579</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>2264647128.400578</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>350423000000</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>0.006563402467839327</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>2299967182.987661</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>364286000000</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>0.006548359635911204</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>2385475738.327549</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>389855000000</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>0.006518479890489538</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>2541261977.706799</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>395426000000</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>0.006504911207962012</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>2572211019.319586</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>419268000000</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>0.006501950585175552</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>2726059817.945384</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>446155000000</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>0.006508721687060662</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>2903898724.29055</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>442830000000</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>0.006516780710329098</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>2885826001.955035</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>498071000000</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>0.006450780544445878</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>3212946716.552703</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>441962000000</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>0.006480041472265423</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>2863932089.165371</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>484256000000</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>0.006621201085876978</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>3206356353.042442</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>524631000000</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>0.006604583581005218</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>3464969288.686348</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>533893000000</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>0.006619447938041968</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>3534076917.98504</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>568857000000</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>0.006677350427350428</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>3798457532.051282</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>620186000000</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>0.006813381481229133</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>4225563807.317571</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>640074000000</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>0.006851192107426692</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>4385269936.969032</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>637244000000</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>0.00681802686302584</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>4344746710.302039</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>683429000000</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>0.006752650415288</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>4614957120.669863</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>705866000000</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>0.006791171477079796</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>4793657045.840407</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>701251000000</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>0.006855419208884623</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>4807369575.64955</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>693381000000</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>0.006942515967786726</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>4813808664.259928</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>700991000000</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2">
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>733245000000</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="2">
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>770676000000</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2">
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>784654000000</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2">
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>852629000000</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2">
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>891766000000</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2">
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>896585000000</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="2">
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>932505000000</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="2">
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>974227000000</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="2">
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>1003156000000</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2">
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>1173890000000</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="2">
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>1175491000000</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2">
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>1108353000000</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="2">
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>1167898000000</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="2">
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>1263662000000</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2">
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>1271707000000</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2">
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>1321824000000</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="2">
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>1363526000000</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="2">
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>1359235000000</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="2">
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>1391764000000</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="2">
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>1450385000000</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="2">
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>1474028000000</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>1459131000000</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>1515970000000</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>1478931000000</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>1617525000000</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2">
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>1749189000000</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>1779603000000</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>1943181000000</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2">
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>2097516000000</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2">
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>2214767000000</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2">
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>2264265000000</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2">
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>2300468000000</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2">
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>2416745000000</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>2530079000000</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>2814551000000</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2">
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>2867170000000</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>0.007961149590000795</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>22825969269.96258</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>2989009000000</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>0.008052826542116283</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>24069971009.82445</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>3130333000000</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>0.008108984755108661</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>25383822575.41356</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>3260921000000</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>0.008356313194618534</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>27249277178.90866</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>3454167000000</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>0.008221655841486476</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>28398972293.01981</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>3723349000000</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>0.008225037012666556</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>30624683336.07501</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>3759581000000</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>0.008125457056959454</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>30548313967.66068</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>3651989000000</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>0.007944073721004131</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>29011669844.29615</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>3555596000000</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>0.008308408109006314</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>29541342638.75042</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>3422035000000</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>0.008299443937256205</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>28400987633.82854</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>3470733000000</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>0.008309788931361143</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>28841058667.10986</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>3553643000000</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>0.008346548702111677</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>29660654369.41824</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>3443604000000</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>0.008355614973262031</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>28773429144.38502</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>3485034000000</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>0.008319467554076539</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>28993627287.85358</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>3606858000000</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>0.008321544478655239</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>30014629275.19348</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="n">
         <v>3617487000000</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>0.008339588024351597</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>30168351263.44759</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="n">
         <v>3781139000000</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>0.00832639467110741</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>31483255620.3164</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="n">
         <v>3913425000000</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>0.008316699933466402</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>32546781437.12575</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="n">
         <v>4045590000000</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>0.008354916868577159</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>33800568134.34706</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="n">
         <v>4120310000000</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>0.008390669575432119</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>34572159758.34871</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="n">
         <v>4314343000000</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>0.008375209380234505</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>36133525963.14908</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="n">
         <v>4105566000000</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>0.008371002846140969</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>34367704671.01959</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="n">
         <v>4378167000000</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>0.008342370901810295</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>36524292984.06607</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="n">
         <v>4620329000000</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>0.008311170212765957</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>38400340757.97872</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="n">
         <v>4207184000000</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>0.008241984669908515</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>34675546031.48438</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="n">
         <v>4476698000000</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>0.006684491978609625</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="n">
         <v>29924451871.65775</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="n">
         <v>4416658000000</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>0.006665777896280495</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>29440461271.83042</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="n">
         <v>4391502000000</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="n">
         <v>4419187000000</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>0.006646726487205052</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="n">
         <v>29373127284.81223</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="n">
         <v>4736890000000</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>0.006648936170212766</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="n">
         <v>31495279255.31915</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="n">
         <v>4993239000000</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>0.006635700066357001</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="n">
         <v>33133636363.63636</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="n">
         <v>4857713000000</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>0.006633499170812604</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>32223635157.5456</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="n">
         <v>4909233000000</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>0.006626905235255135</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>32533021868.78727</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="n">
         <v>4796942000000</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>0.006635700066357001</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="n">
         <v>31831068347.71069</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="n">
         <v>4829444000000</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>0.006727211570803902</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>32488691557.34948</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="n">
         <v>5335204000000</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>0.006736274840013473</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="n">
         <v>35939400471.53925</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="n">
         <v>5394164000000</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>0.006756756756756757</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>36447054054.05405</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="n">
         <v>5544467000000</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>0.006791171477079796</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="n">
         <v>37653426146.01019</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="n">
         <v>5709675000000</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>0.006802721088435374</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="n">
         <v>38841326530.61224</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="n">
         <v>5914060000000</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>0.006832934745473181</v>
       </c>
-      <c r="D198">
+      <c r="D198" t="n">
         <v>40410386060.81312</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="n">
         <v>6015559000000</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>0.006818956699624957</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>41019836345.03921</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="n">
         <v>6124467000000</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>0.00678886625933469</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="n">
         <v>41578187372.70876</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="n">
         <v>6300518000000</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>0.006772773450728073</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>42671981036.23434</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="n">
         <v>6367061000000</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>0.006791171477079796</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>43239803056.02716</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="n">
         <v>6581709000000</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>0.006772773450728073</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>44576423975.61801</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="n">
         <v>6693128000000</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>0.00678195998643608</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>45392526280.09495</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="n">
         <v>6615320000000</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>0.006775067750677507</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="n">
         <v>44819241192.41193</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="n">
         <v>6570099000000</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>0.00678886625933469</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="n">
         <v>44603523421.58858</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="n">
         <v>6649830000000</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>0.006807351940095302</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>45267733151.80395</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="n">
         <v>6802837000000</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>0.006853070175438597</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>46620319353.07018</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="n">
         <v>7167153000000</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>0.006870491240123669</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>49241861903.12607</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="n">
         <v>7252484000000</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>0.006865774116031583</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="n">
         <v>49793916924.13319</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="n">
         <v>7209417000000</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>0.006881365262868153</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>49610631709.33113</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="n">
         <v>7568969000000</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>0.006856359273225917</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="n">
         <v>51895570791.90949</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="n">
         <v>8014382000000</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>0.006832934745473181</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>54761749231.29485</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="n">
         <v>7769597000000</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>0.006818956699624957</v>
       </c>
-      <c r="D214">
+      <c r="D214" t="n">
         <v>52980545516.53596</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B215">
+      <c r="B215" t="n">
         <v>8006900000000</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="n">
         <v>0.006752194463200541</v>
       </c>
-      <c r="D215">
+      <c r="D215" t="n">
         <v>54064145847.40041</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="n">
         <v>7909954000000</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="n">
         <v>0.006759040216289288</v>
       </c>
-      <c r="D216">
+      <c r="D216" t="n">
         <v>53463697194.99831</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="n">
         <v>7754881000000</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>0.006770480704129994</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>52504272173.32431</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="n">
         <v>7967502000000</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>0.006736274840013473</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="n">
         <v>53671283260.35703</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="n">
         <v>7783105000000</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="n">
         <v>0.006727211570803902</v>
       </c>
-      <c r="D219">
+      <c r="D219" t="n">
         <v>52358594012.7817</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B220">
+      <c r="B220" t="n">
         <v>8050932000000</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="n">
         <v>0.006772773450728073</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="n">
         <v>54527138503.21706</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="n">
         <v>8418579000000</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>0.00676132521974307</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>56920750507.09939</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="n">
         <v>8618624000000</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>0.006770480704129994</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>58352227488.15166</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="n">
         <v>8454048000000</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="n">
         <v>0.00676132521974307</v>
       </c>
-      <c r="D223">
+      <c r="D223" t="n">
         <v>57160567951.31846</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="n">
         <v>8490391000000</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>0.006691201070592172</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>56810913348.94614</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="n">
         <v>8602644000000</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>0.0066711140760507</v>
       </c>
-      <c r="D225">
+      <c r="D225" t="n">
         <v>57389219479.6531</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B226">
+      <c r="B226" t="n">
         <v>8409751000000</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="n">
         <v>0.006686726847208291</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="n">
         <v>56233707790.03677</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="n">
         <v>8481616000000</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="n">
         <v>0.006673340006673341</v>
       </c>
-      <c r="D227">
+      <c r="D227" t="n">
         <v>56600707374.04071</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="n">
         <v>8761681000000</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="n">
         <v>0.006633499170812604</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="n">
         <v>58120603648.42455</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B229">
+      <c r="B229" t="n">
         <v>8513774000000</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="n">
         <v>0.006642311524410495</v>
       </c>
-      <c r="D229">
+      <c r="D229" t="n">
         <v>56551139156.42644</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B230">
+      <c r="B230" t="n">
         <v>8546937000000</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="n">
         <v>0.00665335994677312</v>
       </c>
-      <c r="D230">
+      <c r="D230" t="n">
         <v>56865848303.39321</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B231">
+      <c r="B231" t="n">
         <v>8565127000000</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>0.006629101756711966</v>
       </c>
-      <c r="D231">
+      <c r="D231" t="n">
         <v>56779098442.16109</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B232">
+      <c r="B232" t="n">
         <v>8624926000000</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="n">
         <v>0.006649378283130528</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="n">
         <v>57350395638.00785</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="n">
         <v>9055289000000</v>
       </c>
-      <c r="C233">
+      <c r="C233" t="n">
         <v>0.006629101756711966</v>
       </c>
-      <c r="D233">
+      <c r="D233" t="n">
         <v>60028432217.43454</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="n">
         <v>9053835000000</v>
       </c>
-      <c r="C234">
+      <c r="C234" t="n">
         <v>0.006613756613756614</v>
       </c>
-      <c r="D234">
+      <c r="D234" t="n">
         <v>59879861111.11111</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B235">
+      <c r="B235" t="n">
         <v>9217119000000</v>
       </c>
-      <c r="C235">
+      <c r="C235" t="n">
         <v>0.006609385327164573</v>
       </c>
-      <c r="D235">
+      <c r="D235" t="n">
         <v>60919491077.3298</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="n">
         <v>9142464000000</v>
       </c>
-      <c r="C236">
+      <c r="C236" t="n">
         <v>0.006589785831960461</v>
       </c>
-      <c r="D236">
+      <c r="D236" t="n">
         <v>60246879736.40857</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B237">
+      <c r="B237" t="n">
         <v>9015168000000</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="n">
         <v>0.006514657980456026</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="n">
         <v>58730736156.35179</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="n">
         <v>8597635000000</v>
       </c>
-      <c r="C238">
+      <c r="C238" t="n">
         <v>0.006527415143603134</v>
       </c>
-      <c r="D238">
+      <c r="D238" t="n">
         <v>56120332898.17233</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B239">
+      <c r="B239" t="n">
         <v>8766907000000</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="n">
         <v>0.006501950585175552</v>
       </c>
-      <c r="D239">
+      <c r="D239" t="n">
         <v>57001996098.82964</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2">
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B240">
+      <c r="B240" t="n">
         <v>8844868000000</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="n">
         <v>0.006487187804086928</v>
       </c>
-      <c r="D240">
+      <c r="D240" t="n">
         <v>57378319818.35874</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2">
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B241">
+      <c r="B241" t="n">
         <v>8553461000000</v>
       </c>
-      <c r="C241">
+      <c r="C241" t="n">
         <v>0.006487187804086928</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="n">
         <v>55487907881.93318</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2">
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B242">
+      <c r="B242" t="n">
         <v>8677324000000</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="n">
         <v>0.006480881399870382</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="n">
         <v>56236707712.24886</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2">
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B243">
+      <c r="B243" t="n">
         <v>8852632000000</v>
       </c>
-      <c r="C243">
+      <c r="C243" t="n">
         <v>0.00643293663557414</v>
       </c>
-      <c r="D243">
+      <c r="D243" t="n">
         <v>56948420714.05598</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2">
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B244">
+      <c r="B244" t="n">
         <v>8884940000000</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="n">
         <v>0.005422993492407809</v>
       </c>
-      <c r="D244">
+      <c r="D244" t="n">
         <v>48182971800.43384</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2">
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B245">
+      <c r="B245" t="n">
         <v>8929817000000</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="n">
         <v>0.005498130635583902</v>
       </c>
-      <c r="D245">
+      <c r="D245" t="n">
         <v>49097300417.85793</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2">
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B246">
+      <c r="B246" t="n">
         <v>8959046000000</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="n">
         <v>0.005494505494505495</v>
       </c>
-      <c r="D246">
+      <c r="D246" t="n">
         <v>49225527472.52747</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2">
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B247">
+      <c r="B247" t="n">
         <v>9207896000000</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="n">
         <v>0.005455537370430987</v>
       </c>
-      <c r="D247">
+      <c r="D247" t="n">
         <v>50234020731.042</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2">
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B248">
+      <c r="B248" t="n">
         <v>9735021000000</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="n">
         <v>0.005455537370430987</v>
       </c>
-      <c r="D248">
+      <c r="D248" t="n">
         <v>53109770867.43044</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2">
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B249">
+      <c r="B249" t="n">
         <v>9752992000000</v>
       </c>
-      <c r="C249">
+      <c r="C249" t="n">
         <v>0.005461496450027308</v>
       </c>
-      <c r="D249">
+      <c r="D249" t="n">
         <v>53265931185.14473</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2">
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B250">
+      <c r="B250" t="n">
         <v>9567278000000</v>
       </c>
-      <c r="C250">
+      <c r="C250" t="n">
         <v>0.005492996429552321</v>
       </c>
-      <c r="D250">
+      <c r="D250" t="n">
         <v>52553023894.53447</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2">
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B251">
+      <c r="B251" t="n">
         <v>9549403000000</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="n">
         <v>0.005498130635583902</v>
       </c>
-      <c r="D251">
+      <c r="D251" t="n">
         <v>52503865185.83682</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2">
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B252">
+      <c r="B252" t="n">
         <v>9202089000000</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="n">
         <v>0.005524861878453038</v>
       </c>
-      <c r="D252">
+      <c r="D252" t="n">
         <v>50840270718.23204</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2">
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B253">
+      <c r="B253" t="n">
         <v>8582774000000</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="n">
         <v>0.005509641873278237</v>
       </c>
-      <c r="D253">
+      <c r="D253" t="n">
         <v>47288011019.28374</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2">
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B254">
+      <c r="B254" t="n">
         <v>7966124000000</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="n">
         <v>0.005485463521667581</v>
       </c>
-      <c r="D254">
+      <c r="D254" t="n">
         <v>43697882611.08064</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2">
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B255">
+      <c r="B255" t="n">
         <v>7630557000000</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="n">
         <v>0.005422993492407809</v>
       </c>
-      <c r="D255">
+      <c r="D255" t="n">
         <v>41380460954.44685</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2">
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B256">
+      <c r="B256" t="n">
         <v>7652864000000</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="n">
         <v>0.005401026194977046</v>
       </c>
-      <c r="D256">
+      <c r="D256" t="n">
         <v>41333318930.59681</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="2">
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B257">
+      <c r="B257" t="n">
         <v>7792745000000</v>
       </c>
-      <c r="C257">
+      <c r="C257" t="n">
         <v>0.005383580080753701</v>
       </c>
-      <c r="D257">
+      <c r="D257" t="n">
         <v>41952866756.39301</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2">
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B258">
+      <c r="B258" t="n">
         <v>7594241000000</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="n">
         <v>0.005379236148466917</v>
       </c>
-      <c r="D258">
+      <c r="D258" t="n">
         <v>40851215707.36955</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2">
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B259">
+      <c r="B259" t="n">
         <v>7829196000000</v>
       </c>
-      <c r="C259">
+      <c r="C259" t="n">
         <v>0.005382131324004305</v>
       </c>
-      <c r="D259">
+      <c r="D259" t="n">
         <v>42137761033.36921</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="2">
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B260">
+      <c r="B260" t="n">
         <v>8545230000000</v>
       </c>
-      <c r="C260">
+      <c r="C260" t="n">
         <v>0.005370569280343717</v>
       </c>
-      <c r="D260">
+      <c r="D260" t="n">
         <v>45892749731.47153</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="2">
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B261">
+      <c r="B261" t="n">
         <v>8181067000000</v>
       </c>
-      <c r="C261">
+      <c r="C261" t="n">
         <v>0.005319148936170213</v>
       </c>
-      <c r="D261">
+      <c r="D261" t="n">
         <v>43516313829.78723</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2">
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B262">
+      <c r="B262" t="n">
         <v>8235031000000</v>
       </c>
-      <c r="C262">
+      <c r="C262" t="n">
         <v>0.004177982034677251</v>
       </c>
-      <c r="D262">
+      <c r="D262" t="n">
         <v>34405811573.01024</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="2">
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B263">
+      <c r="B263" t="n">
         <v>8430690000000</v>
       </c>
-      <c r="C263">
+      <c r="C263" t="n">
         <v>0.003677822728944465</v>
       </c>
-      <c r="D263">
+      <c r="D263" t="n">
         <v>31006583302.68481</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="2">
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B264">
+      <c r="B264" t="n">
         <v>8496433000000</v>
       </c>
-      <c r="C264">
+      <c r="C264" t="n">
         <v>0.003571428571428571</v>
       </c>
-      <c r="D264">
+      <c r="D264" t="n">
         <v>30344403571.42857</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="2">
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B265">
+      <c r="B265" t="n">
         <v>8913375000000</v>
       </c>
-      <c r="C265">
+      <c r="C265" t="n">
         <v>0.003252032520325203</v>
       </c>
-      <c r="D265">
+      <c r="D265" t="n">
         <v>28986585365.85366</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="2">
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B266">
+      <c r="B266" t="n">
         <v>8600161000000</v>
       </c>
-      <c r="C266">
+      <c r="C266" t="n">
         <v>0.002949852507374631</v>
       </c>
-      <c r="D266">
+      <c r="D266" t="n">
         <v>25369206489.67551</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="2">
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B267">
+      <c r="B267" t="n">
         <v>8567534000000</v>
       </c>
-      <c r="C267">
+      <c r="C267" t="n">
         <v>0.002743484224965706</v>
       </c>
-      <c r="D267">
+      <c r="D267" t="n">
         <v>23504894375.85734</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="2">
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B268">
+      <c r="B268" t="n">
         <v>8783375000000</v>
       </c>
-      <c r="C268">
+      <c r="C268" t="n">
         <v>0.002865329512893983</v>
       </c>
-      <c r="D268">
+      <c r="D268" t="n">
         <v>25167263610.31519</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="2">
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B269">
+      <c r="B269" t="n">
         <v>9738469000000</v>
       </c>
-      <c r="C269">
+      <c r="C269" t="n">
         <v>0.002898130705694827</v>
       </c>
-      <c r="D269">
+      <c r="D269" t="n">
         <v>28223356035.35719</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="2">
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B270">
+      <c r="B270" t="n">
         <v>9781593000000</v>
       </c>
-      <c r="C270">
+      <c r="C270" t="n">
         <v>0.003054834275240568</v>
       </c>
-      <c r="D270">
+      <c r="D270" t="n">
         <v>29881145562.85321</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="2">
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B271">
+      <c r="B271" t="n">
         <v>10150888000000</v>
       </c>
-      <c r="C271">
+      <c r="C271" t="n">
         <v>0.002973093503790694</v>
       </c>
-      <c r="D271">
+      <c r="D271" t="n">
         <v>30179539170.50691</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="2">
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B272">
+      <c r="B272" t="n">
         <v>10669542000000</v>
       </c>
-      <c r="C272">
+      <c r="C272" t="n">
         <v>0.002949417490045716</v>
       </c>
-      <c r="D272">
+      <c r="D272" t="n">
         <v>31468933785.57735</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="2">
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B273">
+      <c r="B273" t="n">
         <v>11240903000000</v>
       </c>
-      <c r="C273">
+      <c r="C273" t="n">
         <v>0.002838087129274869</v>
       </c>
-      <c r="D273">
+      <c r="D273" t="n">
         <v>31902662125.72726</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="2">
+    <row r="274">
+      <c r="A274" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B274">
+      <c r="B274" t="n">
         <v>10923646000000</v>
       </c>
-      <c r="C274">
+      <c r="C274" t="n">
         <v>0.002939879464941938</v>
       </c>
-      <c r="D274">
+      <c r="D274" t="n">
         <v>32114202557.69514</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="2">
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B275">
+      <c r="B275" t="n">
         <v>11173979000000</v>
       </c>
-      <c r="C275">
+      <c r="C275" t="n">
         <v>0.002978406552494416</v>
       </c>
-      <c r="D275">
+      <c r="D275" t="n">
         <v>33280652271.035</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2">
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B276">
+      <c r="B276" t="n">
         <v>11397975000000</v>
       </c>
-      <c r="C276">
+      <c r="C276" t="n">
         <v>0.002980625931445604</v>
       </c>
-      <c r="D276">
+      <c r="D276" t="n">
         <v>33973099850.9687</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="2">
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B277">
+      <c r="B277" t="n">
         <v>11825762000000</v>
       </c>
-      <c r="C277">
+      <c r="C277" t="n">
         <v>0.002945508100147275</v>
       </c>
-      <c r="D277">
+      <c r="D277" t="n">
         <v>34832877761.41384</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2">
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B278">
+      <c r="B278" t="n">
         <v>12589931000000</v>
       </c>
-      <c r="C278">
+      <c r="C278" t="n">
         <v>0.00299805126667666</v>
       </c>
-      <c r="D278">
+      <c r="D278" t="n">
         <v>37745258581.92175</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2">
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B279">
+      <c r="B279" t="n">
         <v>12098181000000</v>
       </c>
-      <c r="C279">
+      <c r="C279" t="n">
         <v>0.003093867953715735</v>
       </c>
-      <c r="D279">
+      <c r="D279" t="n">
         <v>37430174494.15259</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2">
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B280">
+      <c r="B280" t="n">
         <v>11951876000000</v>
       </c>
-      <c r="C280">
+      <c r="C280" t="n">
         <v>0.003197851044098366</v>
       </c>
-      <c r="D280">
+      <c r="D280" t="n">
         <v>38220319145.5342</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2">
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B281">
+      <c r="B281" t="n">
         <v>12726626000000</v>
       </c>
-      <c r="C281">
+      <c r="C281" t="n">
         <v>0.00318908058806646</v>
       </c>
-      <c r="D281">
+      <c r="D281" t="n">
         <v>40586235928.18191</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2">
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B282">
+      <c r="B282" t="n">
         <v>13010060000000</v>
       </c>
-      <c r="C282">
+      <c r="C282" t="n">
         <v>0.003179549139931958</v>
       </c>
-      <c r="D282">
+      <c r="D282" t="n">
         <v>41366125083.46317</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2">
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B283">
+      <c r="B283" t="n">
         <v>13181924000000</v>
       </c>
-      <c r="C283">
+      <c r="C283" t="n">
         <v>0.003208933671341013</v>
       </c>
-      <c r="D283">
+      <c r="D283" t="n">
         <v>42299919776.65822</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="2">
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B284">
+      <c r="B284" t="n">
         <v>13600013000000</v>
       </c>
-      <c r="C284">
+      <c r="C284" t="n">
         <v>0.003106554830692762</v>
       </c>
-      <c r="D284">
+      <c r="D284" t="n">
         <v>42249186082.63436</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="2">
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B285">
+      <c r="B285" t="n">
         <v>13300308000000</v>
       </c>
-      <c r="C285">
+      <c r="C285" t="n">
         <v>0.003036467980445146</v>
       </c>
-      <c r="D285">
+      <c r="D285" t="n">
         <v>40385959372.05842</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="2">
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B286">
+      <c r="B286" t="n">
         <v>12985703000000</v>
       </c>
-      <c r="C286">
+      <c r="C286" t="n">
         <v>0.002959543046553612</v>
       </c>
-      <c r="D286">
+      <c r="D286" t="n">
         <v>38431747018.26038</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="2">
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B287">
+      <c r="B287" t="n">
         <v>14083769000000</v>
       </c>
-      <c r="C287">
+      <c r="C287" t="n">
         <v>0.002939620201070022</v>
       </c>
-      <c r="D287">
+      <c r="D287" t="n">
         <v>41400931859.60374</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2">
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B288">
+      <c r="B288" t="n">
         <v>13632260000000</v>
       </c>
-      <c r="C288">
+      <c r="C288" t="n">
         <v>0.002986679409832149</v>
       </c>
-      <c r="D288">
+      <c r="D288" t="n">
         <v>40715190251.47841</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2">
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B289">
+      <c r="B289" t="n">
         <v>13557746000000</v>
       </c>
-      <c r="C289">
+      <c r="C289" t="n">
         <v>0.003019779556092405</v>
       </c>
-      <c r="D289">
+      <c r="D289" t="n">
         <v>40941404197.49358</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="2">
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B290">
+      <c r="B290" t="n">
         <v>13513426000000</v>
       </c>
-      <c r="C290">
+      <c r="C290" t="n">
         <v>0.003005710850616171</v>
       </c>
-      <c r="D290">
+      <c r="D290" t="n">
         <v>40617451157.19868</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="2">
+    <row r="291">
+      <c r="A291" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B291">
+      <c r="B291" t="n">
         <v>13338598000000</v>
       </c>
-      <c r="C291">
+      <c r="C291" t="n">
         <v>0.003095879384539178</v>
       </c>
-      <c r="D291">
+      <c r="D291" t="n">
         <v>41294690566.85551</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="2">
+    <row r="292">
+      <c r="A292" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B292">
+      <c r="B292" t="n">
         <v>13291605000000</v>
       </c>
-      <c r="C292">
+      <c r="C292" t="n">
         <v>0.003121975586150916</v>
       </c>
-      <c r="D292">
+      <c r="D292" t="n">
         <v>41496066310.76145</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2">
+    <row r="293">
+      <c r="A293" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B293">
+      <c r="B293" t="n">
         <v>13351482000000</v>
       </c>
-      <c r="C293">
+      <c r="C293" t="n">
         <v>0.003135189365437673</v>
       </c>
-      <c r="D293">
+      <c r="D293" t="n">
         <v>41859424379.23251</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2">
+    <row r="294">
+      <c r="A294" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B294">
+      <c r="B294" t="n">
         <v>13537134000000</v>
       </c>
-      <c r="C294">
+      <c r="C294" t="n">
         <v>0.003054740957966764</v>
       </c>
-      <c r="D294">
+      <c r="D294" t="n">
         <v>41352437683.28445</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="2">
+    <row r="295">
+      <c r="A295" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B295">
+      <c r="B295" t="n">
         <v>13591199000000</v>
       </c>
-      <c r="C295">
+      <c r="C295" t="n">
         <v>0.003036652394400413</v>
       </c>
-      <c r="D295">
+      <c r="D295" t="n">
         <v>41271746986.1225</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="2">
+    <row r="296">
+      <c r="A296" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B296">
+      <c r="B296" t="n">
         <v>14433228000000</v>
       </c>
-      <c r="C296">
+      <c r="C296" t="n">
         <v>0.002930746461123649</v>
       </c>
-      <c r="D296">
+      <c r="D296" t="n">
         <v>42300131883.59075</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2">
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B297">
+      <c r="B297" t="n">
         <v>14696593000000</v>
       </c>
-      <c r="C297">
+      <c r="C297" t="n">
         <v>0.002879686690088118</v>
       </c>
-      <c r="D297">
+      <c r="D297" t="n">
         <v>42321583251.74221</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="2">
+    <row r="298">
+      <c r="A298" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B298">
+      <c r="B298" t="n">
         <v>13832165000000</v>
       </c>
-      <c r="C298">
+      <c r="C298" t="n">
         <v>0.002751258700855641</v>
       </c>
-      <c r="D298">
+      <c r="D298" t="n">
         <v>38055864307.92087</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="2">
+    <row r="299">
+      <c r="A299" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B299">
+      <c r="B299" t="n">
         <v>13677123000000</v>
       </c>
-      <c r="C299">
+      <c r="C299" t="n">
         <v>0.00275504862660826</v>
       </c>
-      <c r="D299">
+      <c r="D299" t="n">
         <v>37681138937.10224</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="2">
+    <row r="300">
+      <c r="A300" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B300">
+      <c r="B300" t="n">
         <v>13909606000000</v>
       </c>
-      <c r="C300">
+      <c r="C300" t="n">
         <v>0.00270292185852907</v>
       </c>
-      <c r="D300">
+      <c r="D300" t="n">
         <v>37596578100.9271</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2">
+    <row r="301">
+      <c r="A301" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B301">
+      <c r="B301" t="n">
         <v>14041534000000</v>
       </c>
-      <c r="C301">
+      <c r="C301" t="n">
         <v>0.002679743816491143</v>
       </c>
-      <c r="D301">
+      <c r="D301" t="n">
         <v>37627713910.55015</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2">
+    <row r="302">
+      <c r="A302" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B302">
+      <c r="B302" t="n">
         <v>14467059000000</v>
       </c>
-      <c r="C302">
+      <c r="C302" t="n">
         <v>0.002604370133083313</v>
       </c>
-      <c r="D302">
+      <c r="D302" t="n">
         <v>37677576373.15414</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2">
+    <row r="303">
+      <c r="A303" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B303">
+      <c r="B303" t="n">
         <v>15842962000000</v>
       </c>
-      <c r="C303">
+      <c r="C303" t="n">
         <v>0.002631786720004211</v>
       </c>
-      <c r="D303">
+      <c r="D303" t="n">
         <v>41695296997.13136</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="2">
+    <row r="304">
+      <c r="A304" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B304">
+      <c r="B304" t="n">
         <v>14814967000000</v>
       </c>
-      <c r="C304">
+      <c r="C304" t="n">
         <v>0.002672939163904629</v>
       </c>
-      <c r="D304">
+      <c r="D304" t="n">
         <v>39599505506.25468</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="2">
+    <row r="305">
+      <c r="A305" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B305">
+      <c r="B305" t="n">
         <v>14641941000000</v>
       </c>
-      <c r="C305">
+      <c r="C305" t="n">
         <v>0.002635949073463901</v>
       </c>
-      <c r="D305">
+      <c r="D305" t="n">
         <v>38595410812.6631</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2">
+    <row r="306">
+      <c r="A306" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B306">
+      <c r="B306" t="n">
         <v>14587125000000</v>
       </c>
-      <c r="C306">
+      <c r="C306" t="n">
         <v>0.002627430373095113</v>
       </c>
-      <c r="D306">
+      <c r="D306" t="n">
         <v>38326655281.13505</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2">
+    <row r="307">
+      <c r="A307" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B307">
+      <c r="B307" t="n">
         <v>15132426000000</v>
       </c>
-      <c r="C307">
+      <c r="C307" t="n">
         <v>0.002614652512681065</v>
       </c>
-      <c r="D307">
+      <c r="D307" t="n">
         <v>39566035663.86028</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2">
+    <row r="308">
+      <c r="A308" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B308">
+      <c r="B308" t="n">
         <v>14549374000000</v>
       </c>
-      <c r="C308">
+      <c r="C308" t="n">
         <v>0.002628397203385376</v>
       </c>
-      <c r="D308">
+      <c r="D308" t="n">
         <v>38241533932.60789</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2">
+    <row r="309">
+      <c r="A309" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B309">
+      <c r="B309" t="n">
         <v>14960666000000</v>
       </c>
-      <c r="C309">
+      <c r="C309" t="n">
         <v>0.002608718336681188</v>
       </c>
-      <c r="D309">
+      <c r="D309" t="n">
         <v>39028163723.16281</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2">
+    <row r="310">
+      <c r="A310" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B310">
+      <c r="B310" t="n">
         <v>14629505000000</v>
       </c>
-      <c r="C310">
+      <c r="C310" t="n">
         <v>0.002583578773316799</v>
       </c>
-      <c r="D310">
+      <c r="D310" t="n">
         <v>37796478582.13197</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2">
+    <row r="311">
+      <c r="A311" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B311">
+      <c r="B311" t="n">
         <v>15200475000000</v>
       </c>
-      <c r="C311">
+      <c r="C311" t="n">
         <v>0.002577917558196489</v>
       </c>
-      <c r="D311">
+      <c r="D311" t="n">
         <v>39185571395.42677</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2">
+    <row r="312">
+      <c r="A312" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B312">
+      <c r="B312" t="n">
         <v>15612256000000</v>
       </c>
-      <c r="C312">
+      <c r="C312" t="n">
         <v>0.002571950309920012</v>
       </c>
-      <c r="D312">
+      <c r="D312" t="n">
         <v>40153946657.75057</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2">
+    <row r="313">
+      <c r="A313" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B313">
+      <c r="B313" t="n">
         <v>15275961000000</v>
       </c>
-      <c r="C313">
+      <c r="C313" t="n">
         <v>0.002587924743148469</v>
       </c>
-      <c r="D313">
+      <c r="D313" t="n">
         <v>39533037447.27103</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2">
+    <row r="314">
+      <c r="A314" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B314">
+      <c r="B314" t="n">
         <v>16054722000000</v>
       </c>
-      <c r="C314">
+      <c r="C314" t="n">
         <v>0.002612603197826314</v>
       </c>
-      <c r="D314">
+      <c r="D314" t="n">
         <v>41944618037.41248</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2">
+    <row r="315">
+      <c r="A315" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B315">
+      <c r="B315" t="n">
         <v>15538391000000</v>
       </c>
-      <c r="C315">
+      <c r="C315" t="n">
         <v>0.002636018557570645</v>
       </c>
-      <c r="D315">
+      <c r="D315" t="n">
         <v>40959487030.78869</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2">
+    <row r="316">
+      <c r="A316" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B316">
+      <c r="B316" t="n">
         <v>15507593000000</v>
       </c>
-      <c r="C316">
+      <c r="C316" t="n">
         <v>0.00261876080238831</v>
       </c>
-      <c r="D316">
+      <c r="D316" t="n">
         <v>40610676687.79134</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="2">
+    <row r="317">
+      <c r="A317" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B317">
+      <c r="B317" t="n">
         <v>16407064000000</v>
       </c>
-      <c r="C317">
+      <c r="C317" t="n">
         <v>0.002232093033637642</v>
       </c>
-      <c r="D317">
+      <c r="D317" t="n">
         <v>36622093256.84695</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2">
+    <row r="318">
+      <c r="A318" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B318">
+      <c r="B318" t="n">
         <v>16406269000000</v>
       </c>
-      <c r="C318">
+      <c r="C318" t="n">
         <v>0.002350010575047588</v>
       </c>
-      <c r="D318">
+      <c r="D318" t="n">
         <v>38554905647.07541</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="2">
+    <row r="319">
+      <c r="A319" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B319">
+      <c r="B319" t="n">
         <v>16797971000000</v>
       </c>
-      <c r="C319">
+      <c r="C319" t="n">
         <v>0.002428540204483085</v>
       </c>
-      <c r="D319">
+      <c r="D319" t="n">
         <v>40794547927.24094</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="2">
+    <row r="320">
+      <c r="A320" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B320">
+      <c r="B320" t="n">
         <v>17214619000000</v>
       </c>
-      <c r="C320">
+      <c r="C320" t="n">
         <v>0.002464450304359613</v>
       </c>
-      <c r="D320">
+      <c r="D320" t="n">
         <v>42424573033.98477</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="2">
+    <row r="321">
+      <c r="A321" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B321">
+      <c r="B321" t="n">
         <v>17930660000000</v>
       </c>
-      <c r="C321">
+      <c r="C321" t="n">
         <v>0.002372929618907503</v>
       </c>
-      <c r="D321">
+      <c r="D321" t="n">
         <v>42548194200.56001</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="2">
+    <row r="322">
+      <c r="A322" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B322">
+      <c r="B322" t="n">
         <v>18022538000000</v>
       </c>
-      <c r="C322">
+      <c r="C322" t="n">
         <v>0.002380555621682101</v>
       </c>
-      <c r="D322">
+      <c r="D322" t="n">
         <v>42903654152.87928</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="2">
+    <row r="323">
+      <c r="A323" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B323">
+      <c r="B323" t="n">
         <v>18379007000000</v>
       </c>
-      <c r="C323">
+      <c r="C323" t="n">
         <v>0.002311176851252658</v>
       </c>
-      <c r="D323">
+      <c r="D323" t="n">
         <v>42477135527.41055</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="2">
+    <row r="324">
+      <c r="A324" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B324">
+      <c r="B324" t="n">
         <v>18792360000000</v>
       </c>
-      <c r="C324">
+      <c r="C324" t="n">
         <v>0.002310642820832756</v>
       </c>
-      <c r="D324">
+      <c r="D324" t="n">
         <v>43422431720.50465</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="2">
+    <row r="325">
+      <c r="A325" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B325">
+      <c r="B325" t="n">
         <v>18748810000000</v>
       </c>
-      <c r="C325">
+      <c r="C325" t="n">
         <v>0.002350065801842452</v>
       </c>
-      <c r="D325">
+      <c r="D325" t="n">
         <v>44060937206.24178</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="2">
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B326">
+      <c r="B326" t="n">
         <v>19134928000000</v>
       </c>
-      <c r="C326">
+      <c r="C326" t="n">
         <v>0.002373774538894296</v>
       </c>
-      <c r="D326">
+      <c r="D326" t="n">
         <v>45422004889.97555</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2">
+    <row r="327">
+      <c r="A327" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B327">
+      <c r="B327" t="n">
         <v>19607153000000</v>
       </c>
-      <c r="C327">
+      <c r="C327" t="n">
         <v>0.002359770630294735</v>
       </c>
-      <c r="D327">
+      <c r="D327" t="n">
         <v>46268383793.09531</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="2">
+    <row r="328">
+      <c r="A328" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B328">
+      <c r="B328" t="n">
         <v>19513171000000</v>
       </c>
-      <c r="C328">
+      <c r="C328" t="n">
         <v>0.002393661584125237</v>
       </c>
-      <c r="D328">
+      <c r="D328" t="n">
         <v>46707927807.16663</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2">
+    <row r="329">
+      <c r="A329" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B329">
+      <c r="B329" t="n">
         <v>20328120000000</v>
       </c>
-      <c r="C329">
+      <c r="C329" t="n">
         <v>0.002349955350848334</v>
       </c>
-      <c r="D329">
+      <c r="D329" t="n">
         <v>47770174366.68703</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2">
+    <row r="330">
+      <c r="A330" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B330">
+      <c r="B330" t="n">
         <v>20814132000000</v>
       </c>
-      <c r="C330">
+      <c r="C330" t="n">
         <v>0.002325905940363772</v>
       </c>
-      <c r="D330">
+      <c r="D330" t="n">
         <v>48411713262.31567</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="2">
+    <row r="331">
+      <c r="A331" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B331">
+      <c r="B331" t="n">
         <v>21277202000000</v>
       </c>
-      <c r="C331">
+      <c r="C331" t="n">
         <v>0.002336776183577137</v>
       </c>
-      <c r="D331">
+      <c r="D331" t="n">
         <v>49720058886.75983</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="2">
+    <row r="332">
+      <c r="A332" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B332">
+      <c r="B332" t="n">
         <v>22005814000000</v>
       </c>
-      <c r="C332">
+      <c r="C332" t="n">
         <v>0.002341481689613187</v>
       </c>
-      <c r="D332">
+      <c r="D332" t="n">
         <v>51526210546.03353</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="2">
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B333">
+      <c r="B333" t="n">
         <v>22155383000000</v>
       </c>
-      <c r="C333">
+      <c r="C333" t="n">
         <v>0.002351945058563432</v>
       </c>
-      <c r="D333">
+      <c r="D333" t="n">
         <v>52108243567.43027</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2">
+    <row r="334">
+      <c r="A334" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B334">
+      <c r="B334" t="n">
         <v>21887518000000</v>
       </c>
-      <c r="C334">
+      <c r="C334" t="n">
         <v>0.002347252540900875</v>
       </c>
-      <c r="D334">
+      <c r="D334" t="n">
         <v>51375532239.51365</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="2">
+    <row r="335">
+      <c r="A335" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B335">
+      <c r="B335" t="n">
         <v>22572364000000</v>
       </c>
-      <c r="C335">
+      <c r="C335" t="n">
         <v>0.002348354977338375</v>
       </c>
-      <c r="D335">
+      <c r="D335" t="n">
         <v>53007923349.69354</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="2">
+    <row r="336">
+      <c r="A336" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B336">
+      <c r="B336" t="n">
         <v>22746598000000</v>
       </c>
-      <c r="C336">
+      <c r="C336" t="n">
         <v>0.002340385695562629</v>
       </c>
-      <c r="D336">
+      <c r="D336" t="n">
         <v>53235812581.9135</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="2">
+    <row r="337">
+      <c r="A337" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B337">
+      <c r="B337" t="n">
         <v>22276425000000</v>
       </c>
-      <c r="C337">
+      <c r="C337" t="n">
         <v>0.002274122757146431</v>
       </c>
-      <c r="D337">
+      <c r="D337" t="n">
         <v>50659325040.36568</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="2">
+    <row r="338">
+      <c r="A338" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B338">
+      <c r="B338" t="n">
         <v>23750267000000</v>
       </c>
-      <c r="C338">
+      <c r="C338" t="n">
         <v>0.002299749327323322</v>
       </c>
-      <c r="D338">
+      <c r="D338" t="n">
         <v>54619660556.99929</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="2">
+    <row r="339">
+      <c r="A339" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B339">
+      <c r="B339" t="n">
         <v>23424245000000</v>
       </c>
-      <c r="C339">
+      <c r="C339" t="n">
         <v>0.002302396795063662</v>
       </c>
-      <c r="D339">
+      <c r="D339" t="n">
         <v>53931906614.786</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="2">
+    <row r="340">
+      <c r="A340" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B340">
+      <c r="B340" t="n">
         <v>23868588000000</v>
       </c>
-      <c r="C340">
+      <c r="C340" t="n">
         <v>0.00204880247495339</v>
       </c>
-      <c r="D340">
+      <c r="D340" t="n">
         <v>48902022168.04278</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="2">
+    <row r="341">
+      <c r="A341" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B341">
+      <c r="B341" t="n">
         <v>23388580000000</v>
       </c>
-      <c r="C341">
+      <c r="C341" t="n">
         <v>0.002128610655824943</v>
       </c>
-      <c r="D341">
+      <c r="D341" t="n">
         <v>49785180612.61414</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="2">
+    <row r="342">
+      <c r="A342" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B342">
+      <c r="B342" t="n">
         <v>23174386000000</v>
       </c>
-      <c r="C342">
+      <c r="C342" t="n">
         <v>0.002256928771327977</v>
       </c>
-      <c r="D342">
+      <c r="D342" t="n">
         <v>52302938521.26027</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="2">
+    <row r="343">
+      <c r="A343" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B343">
+      <c r="B343" t="n">
         <v>22903738000000</v>
       </c>
-      <c r="C343">
+      <c r="C343" t="n">
         <v>0.002352498353251153</v>
       </c>
-      <c r="D343">
+      <c r="D343" t="n">
         <v>53881005928.29585</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="2">
+    <row r="344">
+      <c r="A344" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B344">
+      <c r="B344" t="n">
         <v>24147388000000</v>
       </c>
-      <c r="C344">
+      <c r="C344" t="n">
         <v>0.002127659574468085</v>
       </c>
-      <c r="D344">
+      <c r="D344" t="n">
         <v>51377421276.59575</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="2">
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B345">
+      <c r="B345" t="n">
         <v>25032674000000</v>
       </c>
-      <c r="C345">
+      <c r="C345" t="n">
         <v>0.002096919625070771</v>
       </c>
-      <c r="D345">
+      <c r="D345" t="n">
         <v>52491505378.59885</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="2">
+    <row r="346">
+      <c r="A346" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B346">
+      <c r="B346" t="n">
         <v>24940660000000</v>
       </c>
-      <c r="C346">
+      <c r="C346" t="n">
         <v>0.002115551418477226</v>
       </c>
-      <c r="D346">
+      <c r="D346" t="n">
         <v>52763248640.75822</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="2">
+    <row r="347">
+      <c r="A347" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B347">
+      <c r="B347" t="n">
         <v>25826059000000</v>
       </c>
-      <c r="C347">
+      <c r="C347" t="n">
         <v>0.002099120468523688</v>
       </c>
-      <c r="D347">
+      <c r="D347" t="n">
         <v>54212009068.20042</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="2">
+    <row r="348">
+      <c r="A348" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B348">
+      <c r="B348" t="n">
         <v>26810878000000</v>
       </c>
-      <c r="C348">
+      <c r="C348" t="n">
         <v>0.002141327623126338</v>
       </c>
-      <c r="D348">
+      <c r="D348" t="n">
         <v>57410873661.67024</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="2">
+    <row r="349">
+      <c r="A349" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B349">
+      <c r="B349" t="n">
         <v>26259950000000</v>
       </c>
-      <c r="C349">
+      <c r="C349" t="n">
         <v>0.002133151304422023</v>
       </c>
-      <c r="D349">
+      <c r="D349" t="n">
         <v>56016446596.55709</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="2">
+    <row r="350">
+      <c r="A350" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B350">
+      <c r="B350" t="n">
         <v>28025355000000</v>
       </c>
-      <c r="C350">
+      <c r="C350" t="n">
         <v>0.002162068667300873</v>
       </c>
-      <c r="D350">
+      <c r="D350" t="n">
         <v>60592741935.48387</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="2">
+    <row r="351">
+      <c r="A351" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B351">
+      <c r="B351" t="n">
         <v>27666796000000</v>
       </c>
-      <c r="C351">
+      <c r="C351" t="n">
         <v>0.002172118684564925</v>
       </c>
-      <c r="D351">
+      <c r="D351" t="n">
         <v>60095564533.64612</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="2">
+    <row r="352">
+      <c r="A352" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B352">
+      <c r="B352" t="n">
         <v>27173136000000</v>
       </c>
-      <c r="C352">
+      <c r="C352" t="n">
         <v>0.002246282402623658</v>
       </c>
-      <c r="D352">
+      <c r="D352" t="n">
         <v>61038537220.89941</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="2">
+    <row r="353">
+      <c r="A353" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B353">
+      <c r="B353" t="n">
         <v>28110277000000</v>
       </c>
-      <c r="C353">
+      <c r="C353" t="n">
         <v>0.002199832812706234</v>
       </c>
-      <c r="D353">
+      <c r="D353" t="n">
         <v>61837909718.86137</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="2">
+    <row r="354">
+      <c r="A354" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B354">
+      <c r="B354" t="n">
         <v>27970918000000</v>
       </c>
-      <c r="C354">
+      <c r="C354" t="n">
         <v>0.002214545132429799</v>
       </c>
-      <c r="D354">
+      <c r="D354" t="n">
         <v>61942860306.49305</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="2">
+    <row r="355">
+      <c r="A355" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B355">
+      <c r="B355" t="n">
         <v>28327691000000</v>
       </c>
-      <c r="C355">
+      <c r="C355" t="n">
         <v>0.002241599605478469</v>
       </c>
-      <c r="D355">
+      <c r="D355" t="n">
         <v>63499340969.71599</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="2">
+    <row r="356">
+      <c r="A356" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B356">
+      <c r="B356" t="n">
         <v>29274455000000</v>
       </c>
-      <c r="C356">
+      <c r="C356" t="n">
         <v>0.002220692411894029</v>
       </c>
-      <c r="D356">
+      <c r="D356" t="n">
         <v>65009560080.83321</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="2">
+    <row r="357">
+      <c r="A357" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B357">
+      <c r="B357" t="n">
         <v>28852963000000</v>
       </c>
-      <c r="C357">
+      <c r="C357" t="n">
         <v>0.002251947934963744</v>
       </c>
-      <c r="D357">
+      <c r="D357" t="n">
         <v>64975370445.43531</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="2">
+    <row r="358">
+      <c r="A358" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B358">
+      <c r="B358" t="n">
         <v>29291631000000</v>
       </c>
-      <c r="C358">
+      <c r="C358" t="n">
         <v>0.00218426455812328</v>
       </c>
-      <c r="D358">
+      <c r="D358" t="n">
         <v>63980671442.92516</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="2">
+    <row r="359">
+      <c r="A359" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B359">
+      <c r="B359" t="n">
         <v>29720800000000</v>
       </c>
-      <c r="C359">
+      <c r="C359" t="n">
         <v>0.002094811152774578</v>
       </c>
-      <c r="D359">
+      <c r="D359" t="n">
         <v>62259463309.38266</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="2">
+    <row r="360">
+      <c r="A360" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B360">
+      <c r="B360" t="n">
         <v>30356335000000</v>
       </c>
-      <c r="C360">
+      <c r="C360" t="n">
         <v>0.002135520105921798</v>
       </c>
-      <c r="D360">
+      <c r="D360" t="n">
         <v>64826563734.59757</v>
       </c>
     </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B361" t="n">
+        <v>30487873000000</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.002187800822613109</v>
+      </c>
+      <c r="D361" t="n">
+        <v>66701393629.12401</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Kazakhstan.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Kazakhstan_M2 (KZT)</t>
+  </si>
+  <si>
+    <t>Kazakhstan_FX (USD)</t>
+  </si>
+  <si>
+    <t>Kazakhstan_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,4585 +385,4341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D361"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D362"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Kazakhstan_M2 (KZT)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Kazakhstan_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Kazakhstan_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>34304</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>8197000000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>34335</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8232000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>34366</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>12540000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>34394</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>58595000000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>34425</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>38179000000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>34455</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>43148000000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>34486</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>42065000000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>34516</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>28615000000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>34547</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>32158000000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>34578</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>37369000000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>34608</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>39197000000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>34639</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>42687000000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>34669</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>52517000000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>34700</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>48874000000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>34731</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>51370000000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>34759</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>56853000000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>34790</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>69379000000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>34820</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>68378000000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>34851</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>77250000000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>34881</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>85523000000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>34912</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>86812000000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>34943</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>86415000000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>34973</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>98904000000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>35004</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>103270000000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>35034</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>109025000000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>35065</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>103154000000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>35096</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>106617000000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>35125</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>103917000000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>35156</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>105266000000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>35186</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>126106000000</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>35217</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>107806000000</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>35247</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>103194000000</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>35278</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>106345000000</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>35309</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>105245000000</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>35339</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>103869000000</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>35370</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>106583000000</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>35400</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>122515000000</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>35431</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>112375000000</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>35462</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>117163000000</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>35490</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>122885000000</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>35521</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>121906000000</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>35551</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>125686000000</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>35582</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>131093000000</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>35612</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>138713000000</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>35643</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>145990000000</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>35674</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>154233000000</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>35704</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>147334000000</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>35735</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>153873000000</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>35765</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>164151000000</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>35796</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>146583000000</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>35827</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>144702000000</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>35855</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>145341000000</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>35886</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>149079000000</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>35916</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>153615000000</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>35947</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>148463000000</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>35977</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>150003000000</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>36008</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>146003000000</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>36039</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>134638000000</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>36069</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>131824000000</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>36100</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>128979000000</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>36130</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>133447000000</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>36161</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>115584000000</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>36192</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>116980000000</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>36220</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>110928000000</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>36251</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>124927000000</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>36281</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>131352000000</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>36312</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>134247000000</v>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>36342</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>154235000000</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>36373</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>164901000000</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>36404</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>163247000000</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>36434</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>172623000000</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>36465</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>183796000000</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>36495</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>237260000000</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>36526</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>210793000000</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>36557</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>210716000000</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>36586</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>207545000000</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>36617</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>218498000000</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>36647</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>228456000000</v>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>36678</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>241898000000</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>36708</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>260833000000</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>36739</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>263580000000</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>36770</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>278501000000</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>36800</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>294928000000</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>36831</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>283324000000</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>36861</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>290643000000</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>36892</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>271849000000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.006927606511950121</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>1883262902.667129</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>36923</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>290975000000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.006918978758735211</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>2013249844.322978</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>36951</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>311455000000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.006909894969596462</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>2152121337.755666</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>36982</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>295745000000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.006898930665746809</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>2040324249.74129</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>37012</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>306972000000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.006864831468387451</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>2107311045.513833</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>37043</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>347105000000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.006846501437765302</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>2376454881.555525</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>37073</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>353279000000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.006833401667350007</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>2414097307.639743</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>37104</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>338510000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.006827802813054759</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>2311279530.247167</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>37135</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>355646000000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.006804572672836145</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>2420019052.803484</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>37165</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>346173000000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.006783340116673451</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>2348209198.209198</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>37196</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>326428000000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.006744907594765952</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>2201726696.34426</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>37226</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>337980000000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.006664445184938353</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>2252449183.605464</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>37257</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>315711000000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.006637021304838389</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>2095380633.171833</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>37288</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>309127000000</v>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>37316</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>328982000000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.006592827004219409</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>2168921413.50211</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>37347</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>344634000000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.006571165724799579</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>2264647128.400578</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>37377</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>350423000000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.006563402467839327</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>2299967182.987661</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>37408</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>364286000000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.006548359635911204</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>2385475738.327549</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>37438</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>389855000000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.006518479890489538</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>2541261977.706799</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>37469</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>395426000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.006504911207962012</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>2572211019.319586</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>37500</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>419268000000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.006501950585175552</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>2726059817.945384</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>37530</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>446155000000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.006508721687060662</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>2903898724.29055</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>37561</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>442830000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.006516780710329098</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>2885826001.955035</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>37591</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>498071000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.006450780544445878</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>3212946716.552703</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>37622</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>441962000000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.006480041472265423</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>2863932089.165371</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>37653</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>484256000000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.006621201085876978</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>3206356353.042442</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>37681</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>524631000000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.006604583581005218</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>3464969288.686348</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>37712</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>533893000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.006619447938041968</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>3534076917.98504</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>37742</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>568857000000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.006677350427350428</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>3798457532.051282</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>37773</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>620186000000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.006813381481229133</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>4225563807.317571</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>37803</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>640074000000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.006851192107426692</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>4385269936.969032</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>37834</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>637244000000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.00681802686302584</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>4344746710.302039</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>37865</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>683429000000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.006752650415288</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>4614957120.669863</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>37895</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>705866000000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.006791171477079796</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>4793657045.840407</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>37926</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>701251000000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.006855419208884623</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>4807369575.64955</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>37956</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>693381000000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.006942515967786726</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>4813808664.259928</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>37987</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>700991000000</v>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>38018</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>733245000000</v>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>38047</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>770676000000</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>38078</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>784654000000</v>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>38108</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>852629000000</v>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>38139</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>891766000000</v>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>38169</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>896585000000</v>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>38200</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>932505000000</v>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>38231</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>974227000000</v>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>38261</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>1003156000000</v>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>38292</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>1173890000000</v>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>38322</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>1175491000000</v>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>38353</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>1108353000000</v>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>38384</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>1167898000000</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>38412</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>1263662000000</v>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>38443</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>1271707000000</v>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>38473</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>1321824000000</v>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>38504</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>1363526000000</v>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>38534</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>1359235000000</v>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>38565</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>1391764000000</v>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>38596</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>1450385000000</v>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>38626</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>1474028000000</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>38657</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>1459131000000</v>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>38687</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>1515970000000</v>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>38718</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>1478931000000</v>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>38749</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>1617525000000</v>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>38777</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>1749189000000</v>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>38808</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>1779603000000</v>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>38838</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>1943181000000</v>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>38869</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>2097516000000</v>
       </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>38899</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>2214767000000</v>
       </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>38930</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>2264265000000</v>
       </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>38961</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>2300468000000</v>
       </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>38991</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>2416745000000</v>
       </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>39022</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>2530079000000</v>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>39052</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>2814551000000</v>
       </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>39083</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>2867170000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.007961149590000795</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>22825969269.96258</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>39114</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>2989009000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.008052826542116283</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>24069971009.82445</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>39142</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>3130333000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.008108984755108661</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>25383822575.41356</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>39173</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>3260921000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.008356313194618534</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>27249277178.90866</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>39203</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>3454167000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.008221655841486476</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>28398972293.01981</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>39234</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>3723349000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.008225037012666556</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>30624683336.07501</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>39264</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>3759581000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.008125457056959454</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>30548313967.66068</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>39295</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>3651989000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.007944073721004131</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>29011669844.29615</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>39326</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>3555596000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.008308408109006314</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>29541342638.75042</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>39356</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>3422035000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.008299443937256205</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>28400987633.82854</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>39387</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>3470733000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.008309788931361143</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>28841058667.10986</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>39417</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>3553643000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.008346548702111677</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>29660654369.41824</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>39448</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>3443604000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.008355614973262031</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>28773429144.38502</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>39479</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>3485034000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.008319467554076539</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>28993627287.85358</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>39508</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>3606858000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.008321544478655239</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>30014629275.19348</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>39539</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>3617487000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.008339588024351597</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>30168351263.44759</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>39569</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>3781139000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.00832639467110741</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>31483255620.3164</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>39600</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>3913425000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.008316699933466402</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>32546781437.12575</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>39630</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>4045590000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.008354916868577159</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>33800568134.34706</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>39661</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>4120310000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.008390669575432119</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>34572159758.34871</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>39692</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>4314343000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.008375209380234505</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>36133525963.14908</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>39722</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>4105566000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.008371002846140969</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>34367704671.01959</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>39753</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>4378167000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.008342370901810295</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>36524292984.06607</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>39783</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>4620329000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.008311170212765957</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>38400340757.97872</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>39814</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>4207184000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.008241984669908515</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>34675546031.48438</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>39845</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>4476698000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.006684491978609625</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>29924451871.65775</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>39873</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>4416658000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.006665777896280495</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>29440461271.83042</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>39904</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>4391502000000</v>
       </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>39934</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>4419187000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.006646726487205052</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>29373127284.81223</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>39965</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>4736890000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.006648936170212766</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>31495279255.31915</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>39995</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>4993239000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.006635700066357001</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>33133636363.63636</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>40026</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>4857713000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.006633499170812604</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>32223635157.5456</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>40057</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>4909233000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.006626905235255135</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>32533021868.78727</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>40087</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>4796942000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.006635700066357001</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>31831068347.71069</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>40118</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>4829444000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.006727211570803902</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>32488691557.34948</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>40148</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>5335204000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.006736274840013473</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>35939400471.53925</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>40179</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>5394164000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.006756756756756757</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>36447054054.05405</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>40210</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>5544467000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.006791171477079796</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>37653426146.01019</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>40238</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>5709675000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.006802721088435374</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>38841326530.61224</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>40269</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>5914060000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.006832934745473181</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>40410386060.81312</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>40299</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>6015559000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.006818956699624957</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>41019836345.03921</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>40330</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>6124467000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.00678886625933469</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>41578187372.70876</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>40360</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>6300518000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.006772773450728073</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>42671981036.23434</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>40391</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>6367061000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.006791171477079796</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>43239803056.02716</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>40422</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>6581709000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.006772773450728073</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>44576423975.61801</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>40452</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>6693128000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.00678195998643608</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>45392526280.09495</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>40483</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>6615320000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.006775067750677507</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>44819241192.41193</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>40513</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>6570099000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.00678886625933469</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>44603523421.58858</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>40544</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>6649830000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.006807351940095302</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>45267733151.80395</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>40575</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>6802837000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.006853070175438597</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>46620319353.07018</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>40603</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>7167153000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.006870491240123669</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>49241861903.12607</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>40634</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>7252484000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.006865774116031583</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>49793916924.13319</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>40664</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>7209417000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.006881365262868153</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>49610631709.33113</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>40695</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>7568969000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.006856359273225917</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>51895570791.90949</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>40725</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>8014382000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.006832934745473181</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>54761749231.29485</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>40756</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>7769597000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.006818956699624957</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>52980545516.53596</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>40787</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>8006900000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.006752194463200541</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>54064145847.40041</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>40817</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>7909954000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.006759040216289288</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>53463697194.99831</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>40848</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>7754881000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.006770480704129994</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>52504272173.32431</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>40878</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>7967502000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.006736274840013473</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>53671283260.35703</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>40909</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>7783105000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.006727211570803902</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>52358594012.7817</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>40940</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>8050932000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.006772773450728073</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>54527138503.21706</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>40969</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>8418579000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.00676132521974307</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>56920750507.09939</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>41000</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>8618624000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.006770480704129994</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>58352227488.15166</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>41030</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>8454048000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.00676132521974307</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>57160567951.31846</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>41061</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>8490391000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.006691201070592172</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>56810913348.94614</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>41091</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>8602644000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.0066711140760507</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>57389219479.6531</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>41122</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>8409751000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.006686726847208291</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>56233707790.03677</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>41153</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>8481616000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.006673340006673341</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>56600707374.04071</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>41183</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>8761681000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.006633499170812604</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>58120603648.42455</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>41214</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>8513774000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.006642311524410495</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>56551139156.42644</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>41244</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>8546937000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.00665335994677312</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>56865848303.39321</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>41275</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>8565127000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.006629101756711966</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>56779098442.16109</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>41306</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>8624926000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.006649378283130528</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>57350395638.00785</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>41334</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>9055289000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.006629101756711966</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>60028432217.43454</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>41365</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>9053835000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.006613756613756614</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>59879861111.11111</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>41395</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>9217119000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.006609385327164573</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>60919491077.3298</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>41426</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>9142464000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.006589785831960461</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>60246879736.40857</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>41456</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>9015168000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.006514657980456026</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>58730736156.35179</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>41487</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>8597635000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.006527415143603134</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>56120332898.17233</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>41518</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>8766907000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.006501950585175552</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>57001996098.82964</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>41548</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>8844868000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.006487187804086928</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>57378319818.35874</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>41579</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>8553461000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.006487187804086928</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>55487907881.93318</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>41609</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>8677324000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.006480881399870382</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>56236707712.24886</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>41640</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>8852632000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.00643293663557414</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>56948420714.05598</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>41671</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>8884940000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.005422993492407809</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>48182971800.43384</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>41699</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>8929817000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.005498130635583902</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>49097300417.85793</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>41730</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>8959046000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.005494505494505495</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>49225527472.52747</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>41760</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>9207896000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.005455537370430987</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>50234020731.042</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>41791</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>9735021000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.005455537370430987</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>53109770867.43044</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>41821</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>9752992000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.005461496450027308</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>53265931185.14473</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>41852</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>9567278000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.005492996429552321</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>52553023894.53447</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>41883</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>9549403000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.005498130635583902</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>52503865185.83682</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>41913</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>9202089000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.005524861878453038</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>50840270718.23204</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>41944</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>8582774000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.005509641873278237</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>47288011019.28374</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>41974</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>7966124000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.005485463521667581</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>43697882611.08064</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>42005</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>7630557000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.005422993492407809</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>41380460954.44685</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>42036</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>7652864000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.005401026194977046</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>41333318930.59681</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>42064</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>7792745000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.005383580080753701</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>41952866756.39301</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>42095</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>7594241000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.005379236148466917</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>40851215707.36955</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>42125</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>7829196000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.005382131324004305</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>42137761033.36921</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>42156</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>8545230000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.005370569280343717</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>45892749731.47153</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>42186</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>8181067000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.005319148936170213</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>43516313829.78723</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>42217</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>8235031000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.004177982034677251</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>34405811573.01024</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>42248</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>8430690000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.003677822728944465</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>31006583302.68481</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>42278</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>8496433000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.003571428571428571</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>30344403571.42857</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>42309</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>8913375000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.003252032520325203</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>28986585365.85366</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>42339</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>8600161000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.002949852507374631</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>25369206489.67551</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>42370</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>8567534000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.002743484224965706</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>23504894375.85734</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>42401</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>8783375000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.002865329512893983</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>25167263610.31519</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>42430</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>9738469000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.002898130705694827</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>28223356035.35719</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>42461</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>9781593000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.003054834275240568</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>29881145562.85321</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>42491</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>10150888000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.002973093503790694</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>30179539170.50691</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>42522</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>10669542000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.002949417490045716</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>31468933785.57735</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>42552</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>11240903000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.002838087129274869</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>31902662125.72726</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>42583</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>10923646000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.002939879464941938</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>32114202557.69514</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>42614</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>11173979000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.002978406552494416</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>33280652271.035</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>42644</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>11397975000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.002980625931445604</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>33973099850.9687</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>42675</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>11825762000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.002945508100147275</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>34832877761.41384</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>42705</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>12589931000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.00299805126667666</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>37745258581.92175</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>42736</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>12098181000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.003093867953715735</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>37430174494.15259</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>42767</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>11951876000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.003197851044098366</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>38220319145.5342</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>42795</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>12726626000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.00318908058806646</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>40586235928.18191</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>42826</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>13010060000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.003179549139931958</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>41366125083.46317</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>42856</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>13181924000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.003208933671341013</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>42299919776.65822</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>42887</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>13600013000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.003106554830692762</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>42249186082.63436</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>42917</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>13300308000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.003036467980445146</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>40385959372.05842</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>42948</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>12985703000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.002959543046553612</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>38431747018.26038</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>42979</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>14083769000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.002939620201070022</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>41400931859.60374</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>43009</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>13632260000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.002986679409832149</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>40715190251.47841</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>43040</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>13557746000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.003019779556092405</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>40941404197.49358</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>43070</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>13513426000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.003005710850616171</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>40617451157.19868</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>43101</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>13338598000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.003095879384539178</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>41294690566.85551</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>43132</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>13291605000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.003121975586150916</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>41496066310.76145</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>43160</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>13351482000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.003135189365437673</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>41859424379.23251</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>43191</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>13537134000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.003054740957966764</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>41352437683.28445</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>43221</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>13591199000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.003036652394400413</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>41271746986.1225</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>43252</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>14433228000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.002930746461123649</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>42300131883.59075</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>43282</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>14696593000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.002879686690088118</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>42321583251.74221</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>43313</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>13832165000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.002751258700855641</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>38055864307.92087</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>43344</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>13677123000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.00275504862660826</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>37681138937.10224</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>43374</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>13909606000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.00270292185852907</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>37596578100.9271</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>43405</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>14041534000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.002679743816491143</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>37627713910.55015</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>43435</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>14467059000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.002604370133083313</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>37677576373.15414</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>43466</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>15842962000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.002631786720004211</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>41695296997.13136</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>43497</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>14814967000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.002672939163904629</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>39599505506.25468</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>43525</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>14641941000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.002635949073463901</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>38595410812.6631</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>43556</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>14587125000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.002627430373095113</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>38326655281.13505</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>43586</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>15132426000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.002614652512681065</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>39566035663.86028</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>43617</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>14549374000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.002628397203385376</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>38241533932.60789</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>43647</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>14960666000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.002608718336681188</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>39028163723.16281</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>43678</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>14629505000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.002583578773316799</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>37796478582.13197</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>43709</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>15200475000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.002577917558196489</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>39185571395.42677</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>43739</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>15612256000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.002571950309920012</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>40153946657.75057</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>43770</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>15275961000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.002587924743148469</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>39533037447.27103</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>43800</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>16054722000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.002612603197826314</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>41944618037.41248</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>43831</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>15538391000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.002636018557570645</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>40959487030.78869</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>43862</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>15507593000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.00261876080238831</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>40610676687.79134</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>43891</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>16407064000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.002232093033637642</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>36622093256.84695</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>43922</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>16406269000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.002350010575047588</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>38554905647.07541</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>43952</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>16797971000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.002428540204483085</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>40794547927.24094</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>43983</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>17214619000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.002464450304359613</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>42424573033.98477</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>44013</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>17930660000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.002372929618907503</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>42548194200.56001</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>44044</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>18022538000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.002380555621682101</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>42903654152.87928</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>44075</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>18379007000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.002311176851252658</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>42477135527.41055</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>44105</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>18792360000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.002310642820832756</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>43422431720.50465</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>44136</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>18748810000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.002350065801842452</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>44060937206.24178</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>44166</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>19134928000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.002373774538894296</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>45422004889.97555</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>44197</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>19607153000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.002359770630294735</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>46268383793.09531</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>44228</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>19513171000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.002393661584125237</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>46707927807.16663</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>44256</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>20328120000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.002349955350848334</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>47770174366.68703</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>44287</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>20814132000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.002325905940363772</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>48411713262.31567</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>44317</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>21277202000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.002336776183577137</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>49720058886.75983</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>44348</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>22005814000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.002341481689613187</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>51526210546.03353</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>44378</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>22155383000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.002351945058563432</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>52108243567.43027</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>44409</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>21887518000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.002347252540900875</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>51375532239.51365</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>44440</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>22572364000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.002348354977338375</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>53007923349.69354</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>44470</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>22746598000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.002340385695562629</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>53235812581.9135</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>44501</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>22276425000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.002274122757146431</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>50659325040.36568</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>44531</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>23750267000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.002299749327323322</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>54619660556.99929</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>44562</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>23424245000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.002302396795063662</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>53931906614.786</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>44593</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>23868588000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.00204880247495339</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>48902022168.04278</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>44621</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>23388580000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.002128610655824943</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>49785180612.61414</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>44652</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>23174386000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.002256928771327977</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>52302938521.26027</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>44682</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>22903738000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.002352498353251153</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>53881005928.29585</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>44713</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>24147388000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.002127659574468085</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>51377421276.59575</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>44743</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>25032674000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.002096919625070771</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>52491505378.59885</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>44774</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>24940660000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.002115551418477226</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>52763248640.75822</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>44805</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>25826059000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.002099120468523688</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>54212009068.20042</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>44835</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>26810878000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>0.002141327623126338</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>57410873661.67024</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>44866</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>26259950000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.002133151304422023</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>56016446596.55709</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>44896</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>28025355000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>0.002162068667300873</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>60592741935.48387</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>44927</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>27666796000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>0.002172118684564925</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>60095564533.64612</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>44958</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>27173136000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>0.002246282402623658</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>61038537220.89941</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>44986</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>28110277000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>0.002199832812706234</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>61837909718.86137</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>45017</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>27970918000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>0.002214545132429799</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>61942860306.49305</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>45047</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>28327691000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>0.002241599605478469</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>63499340969.71599</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>45078</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>29274455000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>0.002220692411894029</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>65009560080.83321</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>45108</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>28852963000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.002251947934963744</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>64975370445.43531</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>45139</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>29291631000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.00218426455812328</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>63980671442.92516</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>45170</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>29720800000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.002094811152774578</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>62259463309.38266</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>45200</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>30356335000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.002135520105921798</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>64826563734.59757</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>45231</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>30487873000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>0.002187800822613109</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>66701393629.12401</v>
       </c>
     </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B362">
+        <v>32747515000000</v>
+      </c>
+      <c r="C362">
+        <v>0.002205655300189686</v>
+      </c>
+      <c r="D362">
+        <v>72229730027.79126</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>